--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14055" windowHeight="5580" tabRatio="377"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="14052" windowHeight="5580" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$402</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -642,6 +647,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -689,7 +697,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,7 +732,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -935,28 +943,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
+    <col min="1" max="1" width="37.88671875"/>
+    <col min="2" max="2" width="39.44140625"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625"/>
+    <col min="7" max="7" width="18.6640625"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875"/>
+    <col min="10" max="10" width="12.6640625"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1030,11 +1038,11 @@
         <v>-70.770013333333338</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -1048,27 +1056,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625"/>
+    <col min="9" max="9" width="11.88671875"/>
+    <col min="10" max="10" width="14.44140625"/>
+    <col min="11" max="11" width="13.44140625"/>
+    <col min="12" max="1026" width="8.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1118,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>42</v>
       </c>
@@ -1132,7 +1140,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
@@ -1154,7 +1162,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1164,7 +1172,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1188,7 +1196,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1218,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1232,7 +1240,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -1256,7 +1264,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1288,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
@@ -1304,7 +1312,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1328,7 +1336,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
@@ -1352,7 +1360,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1362,7 +1370,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
@@ -1384,7 +1392,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
@@ -1406,7 +1414,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1416,7 +1424,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>71</v>
       </c>
@@ -1438,7 +1446,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
@@ -1460,7 +1468,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1470,7 +1478,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
@@ -1494,7 +1502,7 @@
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1526,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -1542,7 +1550,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
@@ -1566,7 +1574,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -1590,7 +1598,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
@@ -1614,7 +1622,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1646,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
@@ -1662,7 +1670,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1718,7 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1720,7 +1728,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
@@ -1744,7 +1752,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
@@ -1768,7 +1776,7 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -1778,7 +1786,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>33</v>
       </c>
@@ -1798,7 +1806,7 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>60</v>
       </c>
@@ -1818,7 +1826,7 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -1836,7 +1844,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>41</v>
       </c>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Integration\Cal and Ingest Sheets\Sheets from -test 2015-08-19\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="-12" windowWidth="14052" windowHeight="5580" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14055" windowHeight="5580" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$402</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -697,7 +692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -732,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,28 +938,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875"/>
-    <col min="2" max="2" width="39.44140625"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625"/>
-    <col min="7" max="7" width="18.6640625"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875"/>
-    <col min="10" max="10" width="12.6640625"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="2" width="39.42578125"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.42578125"/>
+    <col min="7" max="7" width="18.7109375"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875"/>
+    <col min="10" max="10" width="12.7109375"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.6640625"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -999,7 +994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1038,11 +1033,11 @@
         <v>-70.770013333333338</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -1056,27 +1051,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625"/>
-    <col min="9" max="9" width="11.88671875"/>
-    <col min="10" max="10" width="14.44140625"/>
-    <col min="11" max="11" width="13.44140625"/>
-    <col min="12" max="1026" width="8.6640625"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125"/>
+    <col min="9" max="9" width="11.85546875"/>
+    <col min="10" max="10" width="14.42578125"/>
+    <col min="11" max="11" width="13.42578125"/>
+    <col min="12" max="1026" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1096,7 +1091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>42</v>
       </c>
@@ -1118,7 +1113,7 @@
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>42</v>
       </c>
@@ -1140,7 +1135,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>42</v>
       </c>
@@ -1162,7 +1157,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1172,7 +1167,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>37</v>
       </c>
@@ -1196,7 +1191,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>37</v>
       </c>
@@ -1218,7 +1213,7 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1235,7 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -1264,7 +1259,7 @@
       </c>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -1288,7 +1283,7 @@
       </c>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1307,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1336,7 +1331,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
@@ -1360,7 +1355,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -1370,7 +1365,7 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>38</v>
       </c>
@@ -1392,7 +1387,7 @@
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
@@ -1414,7 +1409,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1424,7 +1419,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>71</v>
       </c>
@@ -1446,7 +1441,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>71</v>
       </c>
@@ -1468,7 +1463,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -1478,7 +1473,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
@@ -1495,14 +1490,14 @@
         <v>67</v>
       </c>
       <c r="F21" s="21">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>39</v>
       </c>
@@ -1526,7 +1521,7 @@
       </c>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -1550,7 +1545,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
@@ -1574,7 +1569,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -1598,7 +1593,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1617,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
@@ -1646,7 +1641,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
@@ -1670,7 +1665,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
@@ -1694,7 +1689,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -1711,14 +1706,14 @@
         <v>70</v>
       </c>
       <c r="F30" s="21">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -1728,7 +1723,7 @@
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1747,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>40</v>
       </c>
@@ -1776,7 +1771,7 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
@@ -1786,7 +1781,7 @@
       <c r="G34" s="15"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>33</v>
       </c>
@@ -1806,7 +1801,7 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>60</v>
       </c>
@@ -1826,7 +1821,7 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>62</v>
       </c>
@@ -1844,7 +1839,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>41</v>
       </c>

--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14055" windowHeight="5580" tabRatio="377"/>
+    <workbookView xWindow="10180" yWindow="10380" windowWidth="24760" windowHeight="9960" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$33</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
@@ -25,17 +25,22 @@
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$F$402</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$33</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$F$35</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$402</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="71">
   <si>
     <t>Ref Des</t>
   </si>
@@ -161,9 +166,6 @@
   </si>
   <si>
     <t>CP02PMUO-SBS01-01-MOPAK0000</t>
-  </si>
-  <si>
-    <t>CP02PMUO-RII01-02-ADCPTL000</t>
   </si>
   <si>
     <t>Located in the instrument .cal file under SBE43F_Cal_Files in Platform Records as SOC=</t>
@@ -237,15 +239,6 @@
     <t>12991-03</t>
   </si>
   <si>
-    <t>PMUO-00004-STC</t>
-  </si>
-  <si>
-    <t>CP02PMUO-SBS01-00-RTE000000</t>
-  </si>
-  <si>
-    <t>PMUO-00004-RTE</t>
-  </si>
-  <si>
     <t>CP02PMUO-WFP01-00-WFPENG000</t>
   </si>
   <si>
@@ -318,6 +311,26 @@
       <t>-VEL3DK000</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0005</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -418,8 +431,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +475,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,11 +547,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -563,9 +624,32 @@
     <xf numFmtId="11" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="12">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -938,28 +1022,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="8" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -994,12 +1072,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9">
         <v>4</v>
@@ -1010,68 +1088,64 @@
       <c r="E2" s="11">
         <v>0.83472222222222225</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="24">
+        <v>42124</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I2" s="5">
         <v>450</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2" s="6"/>
-      <c r="L2" s="14">
-        <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
-        <v>39.943021666666667</v>
-      </c>
-      <c r="M2" s="14">
-        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
-        <v>-70.770013333333338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125"/>
-    <col min="9" max="9" width="11.85546875"/>
-    <col min="10" max="10" width="14.42578125"/>
-    <col min="11" max="11" width="13.42578125"/>
-    <col min="12" max="1026" width="8.7109375"/>
+    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,12 +1165,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="16">
         <v>4</v>
@@ -1107,18 +1181,20 @@
       <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="21">
-        <v>427.37</v>
-      </c>
-      <c r="G2" s="15"/>
+      <c r="F2" s="26">
+        <v>430000</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="16">
         <v>4</v>
@@ -1135,12 +1211,12 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="16">
         <v>4</v>
@@ -1157,7 +1233,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1167,58 +1243,32 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
-      <c r="D6" s="18">
-        <v>2496</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="22">
-        <v>-847.09</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>55</v>
+      <c r="D6" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2496</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="21">
-        <v>39.943021666666667</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16">
         <v>4</v>
@@ -1227,20 +1277,22 @@
         <v>2496</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="21">
-        <v>-70.770013333333338</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>17</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-847.09</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="16">
         <v>4</v>
@@ -1249,22 +1301,20 @@
         <v>2496</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.6792E-4</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="21">
+        <v>39.943021666666667</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="16">
         <v>4</v>
@@ -1273,22 +1323,20 @@
         <v>2496</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="22">
-        <v>-3.1055000000000002E-3</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F10" s="21">
+        <v>-70.770013333333338</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="16">
         <v>4</v>
@@ -1297,22 +1345,22 @@
         <v>2496</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="22">
-        <v>1.8441E-4</v>
+        <v>2.6792E-4</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="16">
         <v>4</v>
@@ -1321,22 +1369,22 @@
         <v>2496</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F12" s="22">
-        <v>-3.2971000000000002E-6</v>
+        <v>-3.1055000000000002E-3</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="16">
         <v>4</v>
@@ -1345,188 +1393,188 @@
         <v>2496</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1.8441E-4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="16">
+        <v>4</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2496</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="22">
+        <v>-3.2971000000000002E-6</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="16">
+        <v>4</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2496</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F15" s="22">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="16">
-        <v>4</v>
-      </c>
-      <c r="D15" s="16">
-        <v>110</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="21">
-        <v>39.943021666666667</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="16">
-        <v>110</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="21">
-        <v>-70.770013333333338</v>
-      </c>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="21"/>
+    <row r="17" spans="1:8">
+      <c r="A17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16">
+        <v>4</v>
+      </c>
+      <c r="D17" s="16">
+        <v>110</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="21">
+        <v>39.943021666666667</v>
+      </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="16">
         <v>4</v>
       </c>
-      <c r="D18" s="18">
-        <v>100014</v>
+      <c r="D18" s="16">
+        <v>110</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F18" s="21">
-        <v>39.943021666666667</v>
+        <v>-70.770013333333338</v>
       </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="16">
-        <v>4</v>
-      </c>
-      <c r="D19" s="18">
-        <v>100014</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="21">
-        <v>-70.770013333333338</v>
-      </c>
+    <row r="19" spans="1:8">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="21"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="21"/>
+    <row r="20" spans="1:8">
+      <c r="A20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4</v>
+      </c>
+      <c r="D20" s="18">
+        <v>100014</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="21">
+        <v>39.943021666666667</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="15" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="16">
         <v>4</v>
       </c>
-      <c r="D21" s="16">
-        <v>1030</v>
+      <c r="D21" s="18">
+        <v>100014</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="F21" s="21">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>35</v>
-      </c>
+        <v>-70.770013333333338</v>
+      </c>
+      <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="16">
-        <v>4</v>
-      </c>
-      <c r="D22" s="16">
-        <v>1030</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="21">
-        <v>49</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>48</v>
-      </c>
+    <row r="22" spans="1:8">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="16">
         <v>4</v>
@@ -1535,22 +1583,22 @@
         <v>1030</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="21">
-        <v>51</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>50</v>
+        <v>63</v>
+      </c>
+      <c r="F23" s="27">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="16">
         <v>4</v>
@@ -1559,22 +1607,22 @@
         <v>1030</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="21">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="16">
         <v>4</v>
@@ -1583,22 +1631,22 @@
         <v>1030</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="F25" s="21">
-        <v>3.9E-2</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="16">
         <v>4</v>
@@ -1607,22 +1655,22 @@
         <v>1030</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="F26" s="21">
-        <v>700</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="16">
         <v>4</v>
@@ -1631,22 +1679,22 @@
         <v>1030</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="21">
-        <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>49</v>
+        <v>64</v>
+      </c>
+      <c r="F27" s="27">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="16">
         <v>4</v>
@@ -1655,22 +1703,22 @@
         <v>1030</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="21">
-        <v>1.21E-2</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>52</v>
+        <v>65</v>
+      </c>
+      <c r="F28" s="27">
+        <v>700</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="16">
         <v>4</v>
@@ -1679,22 +1727,22 @@
         <v>1030</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="23">
-        <v>3.6200000000000001E-6</v>
+        <v>28</v>
+      </c>
+      <c r="F29" s="21">
+        <v>9.0399999999999994E-2</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="16">
         <v>4</v>
@@ -1703,164 +1751,187 @@
         <v>1030</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="F30" s="21">
+        <v>1.21E-2</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="16">
+        <v>4</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="23">
+        <v>3.6200000000000001E-6</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="16">
+        <v>4</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1030</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="27">
         <v>124</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="15"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="16">
-        <v>4</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="16">
+        <v>4</v>
+      </c>
+      <c r="D34" s="16">
         <v>20438</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F34" s="21">
         <v>1.4</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G34" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="16">
+        <v>4</v>
+      </c>
+      <c r="D35" s="16">
+        <v>20438</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="23">
+        <v>1.01E-17</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="16">
-        <v>4</v>
-      </c>
-      <c r="D33" s="16">
-        <v>20438</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="23">
-        <v>1.01E-17</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="15"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="16">
-        <v>4</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="16">
-        <v>4</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>61</v>
-      </c>
+    <row r="36" spans="1:8">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="16">
         <v>4</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="16">
-        <v>4</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="15"/>
+    <row r="39" spans="1:8">
+      <c r="A39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="16">
+        <v>4</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
+++ b/CP02PMUO/Omaha_Cal_Info_CP02PMUO_00004.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="10380" windowWidth="24760" windowHeight="9960" tabRatio="377"/>
+    <workbookView xWindow="10185" yWindow="10380" windowWidth="24765" windowHeight="9960" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -312,24 +312,25 @@
     </r>
   </si>
   <si>
+    <t>units = mm</t>
+  </si>
+  <si>
+    <t>SWE 0005</t>
+  </si>
+  <si>
     <r>
-      <t>CP02PMUO-RII01-02-ADCPTL0</t>
+      <t>CP02PMUO-RII01-02-ADCPSL0</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>10</t>
     </r>
-  </si>
-  <si>
-    <t>units = mm</t>
-  </si>
-  <si>
-    <t>SWE 0005</t>
   </si>
 </sst>
 </file>
@@ -435,11 +436,13 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,6 +465,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1022,22 +1026,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="8" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="8" width="19.42578125" customWidth="1"/>
     <col min="11" max="11" width="38" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
@@ -1107,11 +1111,11 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
@@ -1130,22 +1134,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1165,9 +1169,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>55</v>
@@ -1185,13 +1189,13 @@
         <v>430000</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>55</v>
@@ -1211,9 +1215,9 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>55</v>
@@ -1233,7 +1237,7 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1243,7 +1247,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
@@ -1263,7 +1267,7 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1291,7 @@
       </c>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -1309,7 +1313,7 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -1331,7 +1335,7 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>37</v>
       </c>
@@ -1355,7 +1359,7 @@
       </c>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1383,7 @@
       </c>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1407,7 @@
       </c>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1431,7 @@
       </c>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>37</v>
       </c>
@@ -1451,7 +1455,7 @@
       </c>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -1461,7 +1465,7 @@
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1487,7 @@
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1509,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1515,7 +1519,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>67</v>
       </c>
@@ -1537,7 +1541,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>67</v>
       </c>
@@ -1559,7 +1563,7 @@
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1569,7 +1573,7 @@
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>39</v>
       </c>
@@ -1593,7 +1597,7 @@
       </c>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>39</v>
       </c>
@@ -1617,7 +1621,7 @@
       </c>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
@@ -1641,7 +1645,7 @@
       </c>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1669,7 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>39</v>
       </c>
@@ -1689,7 +1693,7 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +1717,7 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>39</v>
       </c>
@@ -1737,7 +1741,7 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>39</v>
       </c>
@@ -1761,7 +1765,7 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
@@ -1785,7 +1789,7 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1813,7 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -1819,7 +1823,7 @@
       <c r="G33" s="15"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>40</v>
       </c>
@@ -1843,7 +1847,7 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>40</v>
       </c>
@@ -1867,7 +1871,7 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -1877,7 +1881,7 @@
       <c r="G36" s="15"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1899,7 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>33</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>4</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="17"/>
@@ -1915,7 +1919,7 @@
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
